--- a/Data/Magnetics.xlsx
+++ b/Data/Magnetics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt.sterling\Documents\MSS\library\trunk\Data\to_merge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt.sterling\Documents\MSS\library\trunk\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,15 +17,12 @@
     <sheet name="Transformers" sheetId="3" r:id="rId3"/>
     <sheet name="Chokes" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
-  <si>
-    <t>Part Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>Type</t>
   </si>
@@ -72,9 +69,6 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Power Transformer, 36VA, 230/115 Primary, 36VCT Secondary</t>
-  </si>
-  <si>
     <t>Triad Magnetics</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>553-FS36-1000</t>
   </si>
   <si>
-    <t>Power Transformer, 36VA, 230/115 Primary, 28VCT Secondary</t>
-  </si>
-  <si>
     <t>TE Connectivity</t>
   </si>
   <si>
@@ -162,19 +153,43 @@
     <t>IND-0001</t>
   </si>
   <si>
-    <t>XFM-0001</t>
-  </si>
-  <si>
-    <t>XFM-0002</t>
-  </si>
-  <si>
-    <t>XFM-0003</t>
-  </si>
-  <si>
-    <t>XFM-0004</t>
-  </si>
-  <si>
     <t>CHK-0001</t>
+  </si>
+  <si>
+    <t>..\Schematic\Symbols.SchLib</t>
+  </si>
+  <si>
+    <t>..\PCB\footprints.PcbLib</t>
+  </si>
+  <si>
+    <t>Power Transformer, 36VA, 115/230V Primary, 28VCT Secondary</t>
+  </si>
+  <si>
+    <t>Power Transformer, 36VA, 115/230V Primary, 36VCT Secondary</t>
+  </si>
+  <si>
+    <t>Power Transformer, 30VA, 115/230V Primary, 28VCT Secondary</t>
+  </si>
+  <si>
+    <t>Power Transformer, 36VA, 115 Primary, 28VCT Secondary</t>
+  </si>
+  <si>
+    <t>Power Transformer</t>
+  </si>
+  <si>
+    <t>XFMR-0001</t>
+  </si>
+  <si>
+    <t>XFMR-0002</t>
+  </si>
+  <si>
+    <t>XFMR-0003</t>
+  </si>
+  <si>
+    <t>XFMR-0004</t>
+  </si>
+  <si>
+    <t>Local Part Number</t>
   </si>
 </sst>
 </file>
@@ -234,13 +249,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,57 +567,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -618,6 +636,12 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -630,57 +654,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -697,7 +723,13 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -709,69 +741,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -785,148 +818,178 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
+      <c r="I4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
+      <c r="I5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -940,62 +1003,62 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -1009,7 +1072,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Magnetics.xlsx
+++ b/Data/Magnetics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7710" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inductors" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
   <si>
     <t>Type</t>
   </si>
@@ -190,6 +190,51 @@
   </si>
   <si>
     <t>Local Part Number</t>
+  </si>
+  <si>
+    <t>TRIAD FS36-1000</t>
+  </si>
+  <si>
+    <t>Transformer Dual PriSec</t>
+  </si>
+  <si>
+    <t>FS36-1000-C2-B</t>
+  </si>
+  <si>
+    <t>553-FP30-400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Transformer 12W, 115/230VAC Primary, 15/30VAC Secondary </t>
+  </si>
+  <si>
+    <t>0.8A @ 15V</t>
+  </si>
+  <si>
+    <t>FP30-400</t>
+  </si>
+  <si>
+    <t>553-FP24-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Transformer 12W, 115/230VAC Primary, 12/24VAC Secondary </t>
+  </si>
+  <si>
+    <t>1A @ 12V</t>
+  </si>
+  <si>
+    <t>FP24-500</t>
+  </si>
+  <si>
+    <t>553-FP24-250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Transformer 6W, 115/230VAC Primary, 12/24VAC Secondary </t>
+  </si>
+  <si>
+    <t>0.5A @ 12V</t>
+  </si>
+  <si>
+    <t>FP24-250</t>
   </si>
 </sst>
 </file>
@@ -206,10 +251,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -249,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -257,6 +304,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,9 +787,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -752,6 +802,7 @@
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -806,8 +857,12 @@
       <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -838,9 +893,15 @@
       <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
       <c r="I2" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
       <c r="K2" s="6" t="s">
         <v>45</v>
       </c>
@@ -858,6 +919,12 @@
       </c>
       <c r="P2" t="s">
         <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -991,6 +1058,102 @@
       <c r="P5" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="6" spans="1:26" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Data/Magnetics.xlsx
+++ b/Data/Magnetics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>Type</t>
   </si>
@@ -114,9 +114,6 @@
     <t>PCB</t>
   </si>
   <si>
-    <t>115/230 V</t>
-  </si>
-  <si>
     <t>36VCT</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>30VA</t>
   </si>
   <si>
-    <t>115/230V</t>
-  </si>
-  <si>
     <t>VPP28-1060</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t xml:space="preserve">Power Transformer 12W, 115/230VAC Primary, 15/30VAC Secondary </t>
   </si>
   <si>
-    <t>0.8A @ 15V</t>
-  </si>
-  <si>
     <t>FP30-400</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t xml:space="preserve">Power Transformer 12W, 115/230VAC Primary, 12/24VAC Secondary </t>
   </si>
   <si>
-    <t>1A @ 12V</t>
-  </si>
-  <si>
     <t>FP24-500</t>
   </si>
   <si>
@@ -231,10 +219,31 @@
     <t xml:space="preserve">Power Transformer 6W, 115/230VAC Primary, 12/24VAC Secondary </t>
   </si>
   <si>
-    <t>0.5A @ 12V</t>
-  </si>
-  <si>
     <t>FP24-250</t>
+  </si>
+  <si>
+    <t>XFMR-0005</t>
+  </si>
+  <si>
+    <t>XFMR-0006</t>
+  </si>
+  <si>
+    <t>XFMR-0007</t>
+  </si>
+  <si>
+    <t>6VA</t>
+  </si>
+  <si>
+    <t>12/24VAC</t>
+  </si>
+  <si>
+    <t>115/230VAC</t>
+  </si>
+  <si>
+    <t>12VA</t>
+  </si>
+  <si>
+    <t>15/30VAC</t>
   </si>
 </sst>
 </file>
@@ -615,17 +624,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -684,13 +696,13 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -706,13 +718,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -771,13 +784,13 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -790,14 +803,17 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -807,7 +823,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -873,37 +889,37 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -924,36 +940,36 @@
         <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -973,31 +989,31 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -1006,42 +1022,42 @@
         <v>15</v>
       </c>
       <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1050,100 +1066,145 @@
         <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="P6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1166,14 +1227,14 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1235,7 +1296,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
